--- a/dmsan/bwaise/scores/parameters.xlsx
+++ b/dmsan/bwaise/scores/parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="364">
   <si>
     <t>Parameters</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>('Unplanted drying bed-A8', 'Storage bed  H [m]')</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor  COD removal [fraction of total COD]')</t>
@@ -1495,6 +1501,15 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -1503,6 +1518,15 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -1511,6 +1535,15 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
@@ -1519,6 +1552,15 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
@@ -1527,6 +1569,15 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
@@ -1535,6 +1586,15 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
@@ -1543,6 +1603,15 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -1551,6 +1620,15 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -1559,6 +1637,15 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -1567,6 +1654,15 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -1575,6 +1671,15 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
@@ -1583,6 +1688,15 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
@@ -1591,6 +1705,15 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
@@ -1599,6 +1722,15 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
@@ -1607,1181 +1739,2513 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" t="s">
+        <v>170</v>
+      </c>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="E83" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="E85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="E88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" t="s">
+        <v>170</v>
+      </c>
+      <c r="G89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" t="s">
+        <v>169</v>
+      </c>
+      <c r="G91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="E92" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="E93" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="E94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+      <c r="G94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="E95" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" t="s">
+        <v>170</v>
+      </c>
+      <c r="G97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" t="s">
+        <v>170</v>
+      </c>
+      <c r="G98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="E101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" t="s">
+        <v>170</v>
+      </c>
+      <c r="G101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>170</v>
+      </c>
+      <c r="G103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="E104" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" t="s">
+        <v>170</v>
+      </c>
+      <c r="G104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="E105" t="s">
+        <v>170</v>
+      </c>
+      <c r="F105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="E106" t="s">
+        <v>170</v>
+      </c>
+      <c r="F106" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="E107" t="s">
+        <v>170</v>
+      </c>
+      <c r="F107" t="s">
+        <v>170</v>
+      </c>
+      <c r="G107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="E108" t="s">
+        <v>170</v>
+      </c>
+      <c r="F108" t="s">
+        <v>170</v>
+      </c>
+      <c r="G108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="E109" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="E110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="E111" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="E112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" t="s">
+        <v>169</v>
+      </c>
+      <c r="G112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="E113" t="s">
+        <v>169</v>
+      </c>
+      <c r="F113" t="s">
+        <v>169</v>
+      </c>
+      <c r="G113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="E114" t="s">
+        <v>170</v>
+      </c>
+      <c r="F114" t="s">
+        <v>170</v>
+      </c>
+      <c r="G114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="E115" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" t="s">
+        <v>169</v>
+      </c>
+      <c r="G116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="E117" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" t="s">
+        <v>170</v>
+      </c>
+      <c r="G117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="E118" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="E119" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="E120" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" t="s">
+        <v>169</v>
+      </c>
+      <c r="G120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="E121" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" t="s">
+        <v>169</v>
+      </c>
+      <c r="G121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="E122" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" t="s">
+        <v>170</v>
+      </c>
+      <c r="G122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="E123" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" t="s">
+        <v>169</v>
+      </c>
+      <c r="G123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="E124" t="s">
+        <v>169</v>
+      </c>
+      <c r="F124" t="s">
+        <v>170</v>
+      </c>
+      <c r="G124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="E125" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" t="s">
+        <v>170</v>
+      </c>
+      <c r="G125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="E126" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" t="s">
+        <v>170</v>
+      </c>
+      <c r="G126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="E127" t="s">
+        <v>170</v>
+      </c>
+      <c r="F127" t="s">
+        <v>170</v>
+      </c>
+      <c r="G127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="E128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" t="s">
+        <v>169</v>
+      </c>
+      <c r="G128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="E129" t="s">
+        <v>169</v>
+      </c>
+      <c r="F129" t="s">
+        <v>169</v>
+      </c>
+      <c r="G129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="E130" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" t="s">
+        <v>169</v>
+      </c>
+      <c r="G130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="E131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" t="s">
+        <v>170</v>
+      </c>
+      <c r="G131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" t="s">
+        <v>169</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="E133" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="E135" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="E136" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="E137" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="E138" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" t="s">
+        <v>170</v>
+      </c>
+      <c r="G138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="E139" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="E140" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" t="s">
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="E141" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" t="s">
+        <v>169</v>
+      </c>
+      <c r="G141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="E142" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" t="s">
+        <v>169</v>
+      </c>
+      <c r="G142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="E143" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143" t="s">
+        <v>169</v>
+      </c>
+      <c r="G143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="E144" t="s">
+        <v>169</v>
+      </c>
+      <c r="F144" t="s">
+        <v>169</v>
+      </c>
+      <c r="G144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="E145" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" t="s">
+        <v>169</v>
+      </c>
+      <c r="G145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="E146" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" t="s">
+        <v>169</v>
+      </c>
+      <c r="G146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="E147" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" t="s">
+        <v>169</v>
+      </c>
+      <c r="G147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="E148" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" t="s">
+        <v>169</v>
+      </c>
+      <c r="G148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="E149" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" t="s">
+        <v>169</v>
+      </c>
+      <c r="G149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="E150" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="E151" t="s">
+        <v>170</v>
+      </c>
+      <c r="F151" t="s">
+        <v>170</v>
+      </c>
+      <c r="G151" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="E152" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" t="s">
+        <v>170</v>
+      </c>
+      <c r="G152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="E153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F153" t="s">
+        <v>170</v>
+      </c>
+      <c r="G153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="E154" t="s">
+        <v>169</v>
+      </c>
+      <c r="F154" t="s">
+        <v>169</v>
+      </c>
+      <c r="G154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="E155" t="s">
+        <v>169</v>
+      </c>
+      <c r="F155" t="s">
+        <v>170</v>
+      </c>
+      <c r="G155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="E156" t="s">
+        <v>169</v>
+      </c>
+      <c r="F156" t="s">
+        <v>170</v>
+      </c>
+      <c r="G156" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="E157" t="s">
+        <v>169</v>
+      </c>
+      <c r="F157" t="s">
+        <v>170</v>
+      </c>
+      <c r="G157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="E158" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" t="s">
+        <v>170</v>
+      </c>
+      <c r="G158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="E159" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="E160" t="s">
+        <v>170</v>
+      </c>
+      <c r="F160" t="s">
+        <v>170</v>
+      </c>
+      <c r="G160" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="E161" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" t="s">
+        <v>170</v>
+      </c>
+      <c r="G161" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="E162" t="s">
+        <v>169</v>
+      </c>
+      <c r="F162" t="s">
+        <v>169</v>
+      </c>
+      <c r="G162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>168</v>
+      </c>
+      <c r="E163" t="s">
+        <v>169</v>
+      </c>
+      <c r="F163" t="s">
+        <v>170</v>
+      </c>
+      <c r="G163" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +4289,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2833,7 +4306,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2841,7 +4323,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2849,7 +4340,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2857,7 +4357,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2865,7 +4374,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2873,7 +4391,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2881,7 +4408,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2889,7 +4425,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2897,7 +4442,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2905,7 +4459,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2913,7 +4476,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2921,7 +4493,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2929,7 +4510,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2937,1159 +4527,2464 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>190</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>193</v>
+      </c>
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>195</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>197</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>206</v>
+      </c>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>210</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" t="s">
+        <v>169</v>
+      </c>
+      <c r="G72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="E83" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>170</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="E85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" t="s">
+        <v>170</v>
+      </c>
+      <c r="G85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="E88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" t="s">
+        <v>169</v>
+      </c>
+      <c r="G89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F90" t="s">
+        <v>170</v>
+      </c>
+      <c r="G90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" t="s">
+        <v>170</v>
+      </c>
+      <c r="G91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="E92" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" t="s">
+        <v>170</v>
+      </c>
+      <c r="G92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>211</v>
+      </c>
+      <c r="E93" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" t="s">
+        <v>169</v>
+      </c>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>212</v>
+      </c>
+      <c r="E94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>214</v>
+      </c>
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" t="s">
+        <v>170</v>
+      </c>
+      <c r="G96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>215</v>
+      </c>
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" t="s">
+        <v>170</v>
+      </c>
+      <c r="G97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>217</v>
+      </c>
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>218</v>
+      </c>
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" t="s">
+        <v>170</v>
+      </c>
+      <c r="G100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="E101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>220</v>
+      </c>
+      <c r="E102" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="E104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" t="s">
+        <v>169</v>
+      </c>
+      <c r="G104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="E105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>224</v>
+      </c>
+      <c r="E106" t="s">
+        <v>169</v>
+      </c>
+      <c r="F106" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="E107" t="s">
+        <v>169</v>
+      </c>
+      <c r="F107" t="s">
+        <v>170</v>
+      </c>
+      <c r="G107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>226</v>
+      </c>
+      <c r="E108" t="s">
+        <v>170</v>
+      </c>
+      <c r="F108" t="s">
+        <v>170</v>
+      </c>
+      <c r="G108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="E109" t="s">
+        <v>170</v>
+      </c>
+      <c r="F109" t="s">
+        <v>170</v>
+      </c>
+      <c r="G109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>228</v>
+      </c>
+      <c r="E110" t="s">
+        <v>170</v>
+      </c>
+      <c r="F110" t="s">
+        <v>170</v>
+      </c>
+      <c r="G110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="E111" t="s">
+        <v>170</v>
+      </c>
+      <c r="F111" t="s">
+        <v>170</v>
+      </c>
+      <c r="G111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>230</v>
+      </c>
+      <c r="E112" t="s">
+        <v>170</v>
+      </c>
+      <c r="F112" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
+        <v>169</v>
+      </c>
+      <c r="F113" t="s">
+        <v>169</v>
+      </c>
+      <c r="G113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
+        <v>169</v>
+      </c>
+      <c r="F114" t="s">
+        <v>169</v>
+      </c>
+      <c r="G114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>233</v>
+      </c>
+      <c r="E115" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>234</v>
+      </c>
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" t="s">
+        <v>169</v>
+      </c>
+      <c r="G116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="E117" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" t="s">
+        <v>169</v>
+      </c>
+      <c r="G117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>236</v>
+      </c>
+      <c r="E118" t="s">
+        <v>170</v>
+      </c>
+      <c r="F118" t="s">
+        <v>170</v>
+      </c>
+      <c r="G118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="E119" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="E120" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" t="s">
+        <v>169</v>
+      </c>
+      <c r="G120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>239</v>
+      </c>
+      <c r="E121" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" t="s">
+        <v>170</v>
+      </c>
+      <c r="G121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>240</v>
+      </c>
+      <c r="E122" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" t="s">
+        <v>169</v>
+      </c>
+      <c r="G122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="E123" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" t="s">
+        <v>169</v>
+      </c>
+      <c r="G123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>242</v>
+      </c>
+      <c r="E124" t="s">
+        <v>169</v>
+      </c>
+      <c r="F124" t="s">
+        <v>169</v>
+      </c>
+      <c r="G124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>243</v>
+      </c>
+      <c r="E125" t="s">
+        <v>169</v>
+      </c>
+      <c r="F125" t="s">
+        <v>169</v>
+      </c>
+      <c r="G125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="E126" t="s">
+        <v>169</v>
+      </c>
+      <c r="F126" t="s">
+        <v>169</v>
+      </c>
+      <c r="G126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="E127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" t="s">
+        <v>169</v>
+      </c>
+      <c r="G127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>246</v>
+      </c>
+      <c r="E128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" t="s">
+        <v>170</v>
+      </c>
+      <c r="G128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="E129" t="s">
+        <v>169</v>
+      </c>
+      <c r="F129" t="s">
+        <v>169</v>
+      </c>
+      <c r="G129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>248</v>
+      </c>
+      <c r="E130" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" t="s">
+        <v>169</v>
+      </c>
+      <c r="G130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="E131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" t="s">
+        <v>169</v>
+      </c>
+      <c r="G131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>250</v>
+      </c>
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" t="s">
+        <v>170</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>251</v>
+      </c>
+      <c r="E133" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>252</v>
+      </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" t="s">
+        <v>169</v>
+      </c>
+      <c r="G134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="E135" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>254</v>
+      </c>
+      <c r="E136" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>255</v>
+      </c>
+      <c r="E137" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" t="s">
+        <v>169</v>
+      </c>
+      <c r="G137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>256</v>
+      </c>
+      <c r="E138" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" t="s">
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>257</v>
+      </c>
+      <c r="E139" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" t="s">
+        <v>169</v>
+      </c>
+      <c r="G139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>258</v>
+      </c>
+      <c r="E140" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>259</v>
+      </c>
+      <c r="E141" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>260</v>
+      </c>
+      <c r="E142" t="s">
+        <v>170</v>
+      </c>
+      <c r="F142" t="s">
+        <v>170</v>
+      </c>
+      <c r="G142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>261</v>
+      </c>
+      <c r="E143" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143" t="s">
+        <v>169</v>
+      </c>
+      <c r="G143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>262</v>
+      </c>
+      <c r="E144" t="s">
+        <v>169</v>
+      </c>
+      <c r="F144" t="s">
+        <v>169</v>
+      </c>
+      <c r="G144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>263</v>
+      </c>
+      <c r="E145" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" t="s">
+        <v>169</v>
+      </c>
+      <c r="G145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>264</v>
+      </c>
+      <c r="E146" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" t="s">
+        <v>169</v>
+      </c>
+      <c r="G146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="E147" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" t="s">
+        <v>169</v>
+      </c>
+      <c r="G147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="E148" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" t="s">
+        <v>169</v>
+      </c>
+      <c r="G148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="E149" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" t="s">
+        <v>169</v>
+      </c>
+      <c r="G149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>265</v>
+      </c>
+      <c r="E150" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" t="s">
+        <v>169</v>
+      </c>
+      <c r="G150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="E151" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" t="s">
+        <v>169</v>
+      </c>
+      <c r="G151" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="E152" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" t="s">
+        <v>169</v>
+      </c>
+      <c r="G152" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="E153" t="s">
+        <v>169</v>
+      </c>
+      <c r="F153" t="s">
+        <v>169</v>
+      </c>
+      <c r="G153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="E154" t="s">
+        <v>169</v>
+      </c>
+      <c r="F154" t="s">
+        <v>169</v>
+      </c>
+      <c r="G154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>267</v>
+      </c>
+      <c r="E155" t="s">
+        <v>169</v>
+      </c>
+      <c r="F155" t="s">
+        <v>169</v>
+      </c>
+      <c r="G155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>268</v>
+      </c>
+      <c r="E156" t="s">
+        <v>169</v>
+      </c>
+      <c r="F156" t="s">
+        <v>169</v>
+      </c>
+      <c r="G156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="E157" t="s">
+        <v>169</v>
+      </c>
+      <c r="F157" t="s">
+        <v>169</v>
+      </c>
+      <c r="G157" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>269</v>
+      </c>
+      <c r="E158" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" t="s">
+        <v>169</v>
+      </c>
+      <c r="G158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>270</v>
+      </c>
+      <c r="E159" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="E160" t="s">
+        <v>170</v>
+      </c>
+      <c r="F160" t="s">
+        <v>170</v>
+      </c>
+      <c r="G160" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +7028,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4141,7 +7045,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4149,7 +7062,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4157,7 +7079,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4165,7 +7096,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4173,7 +7113,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4181,7 +7130,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4189,7 +7147,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4197,7 +7164,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4205,7 +7181,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4213,7 +7198,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4221,7 +7215,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4229,7 +7232,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4237,7 +7249,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4245,1095 +7266,2328 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>286</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>287</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>288</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>289</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>290</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>293</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>294</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>295</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>296</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>297</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>299</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>300</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>303</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>304</v>
+      </c>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>305</v>
+      </c>
+      <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>306</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>307</v>
+      </c>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>309</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>310</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>311</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>312</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>313</v>
+      </c>
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>314</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" t="s">
+        <v>170</v>
+      </c>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="E83" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="E85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" t="s">
+        <v>170</v>
+      </c>
+      <c r="G85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="E88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" t="s">
+        <v>170</v>
+      </c>
+      <c r="G89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" t="s">
+        <v>169</v>
+      </c>
+      <c r="G91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="E92" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="E93" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="E94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+      <c r="G94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="E95" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="E98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="E101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>315</v>
+      </c>
+      <c r="E104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" t="s">
+        <v>169</v>
+      </c>
+      <c r="G104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>316</v>
+      </c>
+      <c r="E105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="E106" t="s">
+        <v>170</v>
+      </c>
+      <c r="F106" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>318</v>
+      </c>
+      <c r="E107" t="s">
+        <v>169</v>
+      </c>
+      <c r="F107" t="s">
+        <v>169</v>
+      </c>
+      <c r="G107" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>319</v>
+      </c>
+      <c r="E108" t="s">
+        <v>169</v>
+      </c>
+      <c r="F108" t="s">
+        <v>169</v>
+      </c>
+      <c r="G108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>320</v>
+      </c>
+      <c r="E109" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>321</v>
+      </c>
+      <c r="E110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>322</v>
+      </c>
+      <c r="E111" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>323</v>
+      </c>
+      <c r="E112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>324</v>
+      </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" t="s">
+        <v>170</v>
+      </c>
+      <c r="G113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>325</v>
+      </c>
+      <c r="E114" t="s">
+        <v>169</v>
+      </c>
+      <c r="F114" t="s">
+        <v>169</v>
+      </c>
+      <c r="G114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>326</v>
+      </c>
+      <c r="E115" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>327</v>
+      </c>
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>328</v>
+      </c>
+      <c r="E117" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" t="s">
+        <v>169</v>
+      </c>
+      <c r="G117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>329</v>
+      </c>
+      <c r="E118" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>330</v>
+      </c>
+      <c r="E119" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>331</v>
+      </c>
+      <c r="E120" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" t="s">
+        <v>170</v>
+      </c>
+      <c r="G120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>332</v>
+      </c>
+      <c r="E121" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" t="s">
+        <v>169</v>
+      </c>
+      <c r="G121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>333</v>
+      </c>
+      <c r="E122" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" t="s">
+        <v>170</v>
+      </c>
+      <c r="G122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>334</v>
+      </c>
+      <c r="E123" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>335</v>
+      </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
+      <c r="F124" t="s">
+        <v>170</v>
+      </c>
+      <c r="G124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>336</v>
+      </c>
+      <c r="E125" t="s">
+        <v>169</v>
+      </c>
+      <c r="F125" t="s">
+        <v>169</v>
+      </c>
+      <c r="G125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>337</v>
+      </c>
+      <c r="E126" t="s">
+        <v>169</v>
+      </c>
+      <c r="F126" t="s">
+        <v>169</v>
+      </c>
+      <c r="G126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>338</v>
+      </c>
+      <c r="E127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" t="s">
+        <v>169</v>
+      </c>
+      <c r="G127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>339</v>
+      </c>
+      <c r="E128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" t="s">
+        <v>169</v>
+      </c>
+      <c r="G128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>340</v>
+      </c>
+      <c r="E129" t="s">
+        <v>170</v>
+      </c>
+      <c r="F129" t="s">
+        <v>170</v>
+      </c>
+      <c r="G129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>341</v>
+      </c>
+      <c r="E130" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" t="s">
+        <v>170</v>
+      </c>
+      <c r="G130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>342</v>
+      </c>
+      <c r="E131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" t="s">
+        <v>170</v>
+      </c>
+      <c r="G131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>343</v>
+      </c>
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" t="s">
+        <v>170</v>
+      </c>
+      <c r="G132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>344</v>
+      </c>
+      <c r="E133" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>170</v>
+      </c>
+      <c r="G133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>345</v>
+      </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>346</v>
+      </c>
+      <c r="E135" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" t="s">
+        <v>169</v>
+      </c>
+      <c r="G135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>347</v>
+      </c>
+      <c r="E136" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>348</v>
+      </c>
+      <c r="E137" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" t="s">
+        <v>169</v>
+      </c>
+      <c r="G137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>349</v>
+      </c>
+      <c r="E138" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" t="s">
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>350</v>
+      </c>
+      <c r="E139" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>351</v>
+      </c>
+      <c r="E140" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" t="s">
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>352</v>
+      </c>
+      <c r="E141" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>353</v>
+      </c>
+      <c r="E142" t="s">
+        <v>170</v>
+      </c>
+      <c r="F142" t="s">
+        <v>170</v>
+      </c>
+      <c r="G142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>354</v>
+      </c>
+      <c r="E143" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143" t="s">
+        <v>170</v>
+      </c>
+      <c r="G143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>355</v>
+      </c>
+      <c r="E144" t="s">
+        <v>169</v>
+      </c>
+      <c r="F144" t="s">
+        <v>170</v>
+      </c>
+      <c r="G144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>356</v>
+      </c>
+      <c r="E145" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" t="s">
+        <v>170</v>
+      </c>
+      <c r="G145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>357</v>
+      </c>
+      <c r="E146" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" t="s">
+        <v>170</v>
+      </c>
+      <c r="G146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>358</v>
+      </c>
+      <c r="E147" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>359</v>
+      </c>
+      <c r="E148" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>360</v>
+      </c>
+      <c r="E149" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>361</v>
+      </c>
+      <c r="E150" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>362</v>
+      </c>
+      <c r="E151" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" t="s">
+        <v>169</v>
+      </c>
+      <c r="G151" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="E152" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" t="s">
+        <v>170</v>
+      </c>
+      <c r="G152" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/dmsan/bwaise/scores/parameters.xlsx
+++ b/dmsan/bwaise/scores/parameters.xlsx
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0.009877963802939314</v>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0.02492304300774551</v>

--- a/dmsan/bwaise/scores/parameters.xlsx
+++ b/dmsan/bwaise/scores/parameters.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion e cal [kcal/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-e cal [kcal/cap/d]')</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion p veg [g/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-p veg [g/cap/d]')</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion p anim [g/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-p anim [g/cap/d]')</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion N prot [fraction]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-N prot [fraction]')</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion P prot v [fraction]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-P prot v [fraction]')</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -558,7 +558,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion P prot a [fraction]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-P prot a [fraction]')</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion K cal [g K/1000 kcal]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-K cal [g K/1000 kcal]')</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -590,7 +590,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion N exc [fraction of intake]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-N exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion P exc [fraction of intake]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-P exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion K exc [fraction of intake]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-K exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -638,7 +638,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion e exc [fraction of intake]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-e exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion N ur [fraction of total]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-N ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion P ur [fraction of total]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-P ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion K ur [fraction of total]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-K ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion e fec [fraction of total]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-e fec [fraction of total]')</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion N ur NH3 [fraction of total N in urine]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-N ur NH3 [fraction of total N in urine]')</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion N fec NH3 [fraction of total N in feces]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-N fec NH3 [fraction of total N in feces]')</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion ur exc [g/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-ur exc [g/cap/d]')</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion fec exc [g/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-fec exc [g/cap/d]')</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion ur moi [fraction]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-ur moi [fraction]')</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion fec moi [fraction]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-fec moi [fraction]')</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -814,7 +814,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion mg ur [g Mg/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-Mg ur [g Mg/cap/d]')</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion mg fec [g Mg/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-Mg fec [g Mg/cap/d]')</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion ca ur [g Ca/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-Ca ur [g Ca/cap/d]')</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -862,7 +862,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('Excretion-A1', 'Excretion ca fec [g Ca/cap/d]')</t>
+          <t>('Excretion-A1', 'A1-Excretion-Ca fec [g Ca/cap/d]')</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine toilet paper [kg/cap/hr]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-toilet paper [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -942,7 +942,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine flushing water [kg/cap/hr]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-flushing water [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine cleansing water [kg/cap/hr]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-cleansing water [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -974,7 +974,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine desiccant V [m3/cap/hr]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-desiccant V [m3/cap/hr]')</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine COD max decay [fraction of oxygen demand removal]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-cod max decay [fraction of oxygen demand removal]')</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine N max decay [fraction of N removal after N leaching]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-n max decay [fraction of N removal after N leaching]')</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine MCF aq [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-mcf aq [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine n2o EF aq [fraction of N emitted as N2O]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-n2o EF aq [fraction of N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine emptying period [yr]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-emptying period [yr]')</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine sludge accum rate [L/cap/yr]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-sludge accum rate [L/cap/yr]')</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine N leaching [fraction of N input]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-n leaching [fraction of N input]')</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine P leaching [fraction of P input]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-p leaching [fraction of P input]')</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine K leaching [fraction of K input]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-k leaching [fraction of K input]')</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('Pit latrine-A2', 'Pit latrine N volatilization [fraction of N input]')</t>
+          <t>('Pit latrine-A2', 'A2-Pit latrine-n volatilization [fraction of N input]')</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation tau [d]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-tau [d]')</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation COD max decay [fraction of retained COD]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-COD max decay [fraction of retained COD]')</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation N max decay [fraction of N removal]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-N max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-N2O EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation tank L to W [length/width]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-tank L to W [length/width]')</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation tank W to H [width/height (average)]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-tank W to H [width/height (average)]')</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation concrete thickness [m]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-concrete thickness [m]')</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation roof slope [degree]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-roof slope [degree]')</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('Sedimentation-A5', 'Sedimentation roof unit mass [kg/m2]')</t>
+          <t>('Sedimentation-A5', 'A5-Sedimentation-roof unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-A6', 'Anaerobic lagoon COD removal [fraction of total COD]')</t>
+          <t>('Anaerobic lagoon-A6', 'A6-Lagoon-COD removal [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-A6', 'Anaerobic lagoon COD decay [fraction of retained COD]')</t>
+          <t>('Anaerobic lagoon-A6', 'A6-Lagoon-COD decay [fraction of retained COD]')</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-A6', 'Anaerobic lagoon MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Anaerobic lagoon-A6', 'A6-Lagoon-MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-A6', 'Anaerobic lagoon N max decay [fraction of N removal]')</t>
+          <t>('Anaerobic lagoon-A6', 'A6-Lagoon-N max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-A6', 'Anaerobic lagoon n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Anaerobic lagoon-A6', 'A6-Lagoon-N2O EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-A6', 'Anaerobic lagoon liner unit mass [kg/m2]')</t>
+          <t>('Anaerobic lagoon-A6', 'A6-Lagoon-liner unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon COD removal [fraction of total COD]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-COD removal [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon COD decay [fraction of retained COD]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-COD decay [fraction of retained COD]')</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon N max decay [fraction of N removal]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-N max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon n2o EF decay [fraction of of degraded N emitted as N2O]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-N2O EF decay [fraction of of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon P removal [fraction of P removal]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-P removal [fraction of P removal]')</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-A7', 'Facultative lagoon liner unit mass [kg/m2]')</t>
+          <t>('Facultative lagoon-A7', 'A7-Lagoon-liner unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed tau [d]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-tau [d]')</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed COD max decay [fraction of total COD]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-cod max decay [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-mcf decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed N max decay [fraction of N removal]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-n max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-n2o EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed column H [m]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-column H [m]')</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed column unit mass [kg/m]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-column unit mass [kg/m]')</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed concrete thickness [m]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-concrete thickness [m]')</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed cover slope [degree]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-cover slope [degree]')</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-A8', 'Drying bed cover unit mass [kg/m2]')</t>
+          <t>('Unplanted drying bed-A8', 'A8-Drying bed-cover unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('TEA/LCA', 'Plant lifetime [yr]')</t>
+          <t>('LCA', 'Brick H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Brick H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Brick H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Concrete H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Concrete H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Concrete H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Gravel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Gravel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Gravel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Wood H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Wood H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Wood H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Trucking H resources total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H ecosystem quality total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Trucking H ecosystem quality total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H human health total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Trucking H human health total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H resources total CF [points/tonne*km]')</t>
+          <t>('LCA', 'N item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('LCA', 'N item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'P item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('LCA', 'P item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'K item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('LCA', 'K item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'E item H resources total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H ecosystem quality total CF [points/kWh]')</t>
+          <t>('LCA', 'E item H ecosystem quality total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H human health total CF [points/kWh]')</t>
+          <t>('LCA', 'E item H human health total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H resources total CF [points/kWh]')</t>
+          <t>('TEA/LCA', 'Plant lifetime [yr]')</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion e cal [kcal/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-e cal [kcal/cap/d]')</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion p veg [g/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-p veg [g/cap/d]')</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion p anim [g/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-p anim [g/cap/d]')</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion N prot [fraction]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-N prot [fraction]')</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion P prot v [fraction]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-P prot v [fraction]')</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion P prot a [fraction]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-P prot a [fraction]')</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion K cal [g K/1000 kcal]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-K cal [g K/1000 kcal]')</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion N exc [fraction of intake]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-N exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion P exc [fraction of intake]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-P exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion K exc [fraction of intake]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-K exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion e exc [fraction of intake]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-e exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion N ur [fraction of total]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-N ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion P ur [fraction of total]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-P ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion K ur [fraction of total]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-K ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion e fec [fraction of total]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-e fec [fraction of total]')</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion N ur NH3 [fraction of total N in urine]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-N ur NH3 [fraction of total N in urine]')</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion N fec NH3 [fraction of total N in feces]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-N fec NH3 [fraction of total N in feces]')</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion ur exc [g/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-ur exc [g/cap/d]')</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion fec exc [g/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-fec exc [g/cap/d]')</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion ur moi [fraction]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-ur moi [fraction]')</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion fec moi [fraction]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-fec moi [fraction]')</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion mg ur [g Mg/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-Mg ur [g Mg/cap/d]')</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion mg fec [g Mg/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-Mg fec [g Mg/cap/d]')</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion ca ur [g Ca/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-Ca ur [g Ca/cap/d]')</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('Excretion-B1', 'Excretion ca fec [g Ca/cap/d]')</t>
+          <t>('Excretion-B1', 'B1-Excretion-Ca fec [g Ca/cap/d]')</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine toilet paper [kg/cap/hr]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-toilet paper [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine flushing water [kg/cap/hr]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-flushing water [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine cleansing water [kg/cap/hr]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-cleansing water [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine desiccant V [m3/cap/hr]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-desiccant V [m3/cap/hr]')</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine COD max decay [fraction of oxygen demand removal]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-cod max decay [fraction of oxygen demand removal]')</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine N max decay [fraction of N removal after N leaching]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-n max decay [fraction of N removal after N leaching]')</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine MCF aq [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-mcf aq [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine n2o EF aq [fraction of N emitted as N2O]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-n2o EF aq [fraction of N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine emptying period [yr]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-emptying period [yr]')</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine sludge accum rate [L/cap/yr]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-sludge accum rate [L/cap/yr]')</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine N leaching [fraction of N input]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-n leaching [fraction of N input]')</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine P leaching [fraction of P input]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-p leaching [fraction of P input]')</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine K leaching [fraction of K input]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-k leaching [fraction of K input]')</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('Pit latrine-B2', 'Pit latrine N volatilization [fraction of N input]')</t>
+          <t>('Pit latrine-B2', 'B2-Pit latrine-n volatilization [fraction of N input]')</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor tau [d]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-tau [d]')</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor COD removal [fraction of total COD]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-cod removal [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor N removal [fraction of N removed]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-n removal [fraction of N removed]')</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor N max decay [fraction of N removal]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-n max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-n2o EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor reactor H [m]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-reactor H [m]')</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor add concrete [fraction of total]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-add concrete [fraction of total]')</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('Anaerobic baffled reactor-B5', 'Anaerobic baffled reactor concrete thickness [m]')</t>
+          <t>('Anaerobic baffled reactor-B5', 'B5-Anaerobic baffled reactor-concrete thickness [m]')</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed tau [d]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-tau [d]')</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed COD max decay [% of total COD]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-cod max decay [% of total COD]')</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed MCF decay [% anaerobic conversion of degraded COD]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-mcf decay [% anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed N max decay [% N removal]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-n max decay [% N removal]')</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed n2o EF decay [% of degraded N emitted as N2O]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-n2o EF decay [% of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed bed H [m]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-bed H [m]')</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('Liquid treatment bed-B7', 'Liquid treatment bed concrete thickness [m]')</t>
+          <t>('Liquid treatment bed-B7', 'B7-Liquid treatment bed-concrete thickness [m]')</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed tau [d]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-tau [d]')</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed COD max decay [fraction of total COD]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-cod max decay [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-mcf decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed N max decay [fraction of N removal]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-n max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-n2o EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed column H [m]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-column H [m]')</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed column unit mass [kg/m]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-column unit mass [kg/m]')</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed concrete thickness [m]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-concrete thickness [m]')</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed cover slope [degree]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-cover slope [degree]')</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('Planted drying bed-B8', 'Drying bed cover unit mass [kg/m2]')</t>
+          <t>('Planted drying bed-B8', 'B8-Drying bed-cover unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('TEA/LCA', 'Plant lifetime [yr]')</t>
+          <t>('LCA', 'Brick H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('TEA/LCA', 'Liquid petroleum gas energy [MJ/kg]')</t>
+          <t>('LCA', 'Brick H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Brick H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Concrete H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Concrete H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Concrete H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Gravel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Gravel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Gravel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Wood H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Wood H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Wood H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Trucking H resources total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Trucking H ecosystem quality total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H ecosystem quality total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Trucking H human health total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H human health total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Biogas item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H resources total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Biogas item H ecosystem quality total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('LCA', 'Biogas item H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Biogas item H human health total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('LCA', 'Biogas item H human health total CF [points/kg]')</t>
+          <t>('LCA', 'N item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('LCA', 'Biogas item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'N item H ecosystem quality total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('LCA', 'N item H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'N item H human health total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('LCA', 'N item H human health total CF [points/kg]')</t>
+          <t>('LCA', 'P item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('LCA', 'N item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'P item H ecosystem quality total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('LCA', 'P item H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'P item H human health total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('LCA', 'P item H human health total CF [points/kg]')</t>
+          <t>('LCA', 'K item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('LCA', 'P item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'K item H ecosystem quality total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('LCA', 'K item H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'K item H human health total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('LCA', 'K item H human health total CF [points/kg]')</t>
+          <t>('LCA', 'E item H resources total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('LCA', 'K item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'E item H ecosystem quality total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H ecosystem quality total CF [points/kWh]')</t>
+          <t>('LCA', 'E item H human health total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H human health total CF [points/kWh]')</t>
+          <t>('TEA/LCA', 'Plant lifetime [yr]')</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H resources total CF [points/kWh]')</t>
+          <t>('TEA/LCA', 'Liquid petroleum gas energy [MJ/kg]')</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion e cal [kcal/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-e cal [kcal/cap/d]')</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion p veg [g/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-p veg [g/cap/d]')</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion p anim [g/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-p anim [g/cap/d]')</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion N prot [fraction]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-N prot [fraction]')</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion P prot v [fraction]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-P prot v [fraction]')</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion P prot a [fraction]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-P prot a [fraction]')</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion K cal [g K/1000 kcal]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-K cal [g K/1000 kcal]')</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion N exc [fraction of intake]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-N exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion P exc [fraction of intake]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-P exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion K exc [fraction of intake]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-K exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion e exc [fraction of intake]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-e exc [fraction of intake]')</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion N ur [fraction of total]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-N ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion P ur [fraction of total]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-P ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion K ur [fraction of total]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-K ur [fraction of total]')</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion e fec [fraction of total]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-e fec [fraction of total]')</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion N ur NH3 [fraction of total N in urine]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-N ur NH3 [fraction of total N in urine]')</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion N fec NH3 [fraction of total N in feces]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-N fec NH3 [fraction of total N in feces]')</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion ur exc [g/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-ur exc [g/cap/d]')</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion fec exc [g/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-fec exc [g/cap/d]')</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion ur moi [fraction]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-ur moi [fraction]')</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion fec moi [fraction]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-fec moi [fraction]')</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion mg ur [g Mg/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-Mg ur [g Mg/cap/d]')</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion mg fec [g Mg/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-Mg fec [g Mg/cap/d]')</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion ca ur [g Ca/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-Ca ur [g Ca/cap/d]')</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('Excretion-C1', 'Excretion ca fec [g Ca/cap/d]')</t>
+          <t>('Excretion-C1', 'C1-Excretion-Ca fec [g Ca/cap/d]')</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT toilet paper [kg/cap/hr]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-toilet paper [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT flushing water [kg/cap/hr]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-flushing water [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT cleansing water [kg/cap/hr]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-cleansing water [kg/cap/hr]')</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT desiccant V [m3/cap/hr]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-desiccant V [m3/cap/hr]')</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT COD max decay [fraction of oxygen demand removal]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-COD max decay [fraction of oxygen demand removal]')</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT N max decay [fraction of N removal after N leaching]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-N max decay [fraction of N removal after N leaching]')</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT MCF aq [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-MCF aq [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT n2o EF aq [fraction of N emitted as N2O]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-N2O EF aq [fraction of N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT collection period [d]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-collection period [d]')</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT N volatilization [fraction of total N]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-N volatilization [fraction of total N]')</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT struvite p ksp [-]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-struvite p ksp [-]')</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT prep sludge [fraction of total precipitate appearing as sludge that settles and can be removed]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-prep sludge [fraction of total precipitate appearing as sludge that settles and can be removed]')</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT log removal [log unit]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-log removal [log unit]')</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT ur p H [pH unit]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-ur p H [pH unit]')</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT n2o EF decay [fraction of N emitted as N2O]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-N2O EF decay [fraction of N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT fec moi min [fraction]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-fec moi min [fraction]')</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('UDDT-C2', 'UDDT fec moi red rate [1/d]')</t>
+          <t>('UDDT-C2', 'C2-UDDT-fec moi red rate [1/d]')</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-C6', 'Anaerobic lagoon COD removal [fraction of total COD]')</t>
+          <t>('Anaerobic lagoon-C6', 'C6-Lagoon-COD removal [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-C6', 'Anaerobic lagoon COD decay [fraction of retained COD]')</t>
+          <t>('Anaerobic lagoon-C6', 'C6-Lagoon-COD decay [fraction of retained COD]')</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-C6', 'Anaerobic lagoon MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Anaerobic lagoon-C6', 'C6-Lagoon-MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-C6', 'Anaerobic lagoon N max decay [fraction of N removal]')</t>
+          <t>('Anaerobic lagoon-C6', 'C6-Lagoon-N max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-C6', 'Anaerobic lagoon n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Anaerobic lagoon-C6', 'C6-Lagoon-N2O EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('Anaerobic lagoon-C6', 'Anaerobic lagoon liner unit mass [kg/m2]')</t>
+          <t>('Anaerobic lagoon-C6', 'C6-Lagoon-liner unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon COD removal [fraction of total COD]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-COD removal [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon COD decay [fraction of retained COD]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-COD decay [fraction of retained COD]')</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon N max decay [fraction of N removal]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-N max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon n2o EF decay [fraction of of degraded N emitted as N2O]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-N2O EF decay [fraction of of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon P removal [fraction of P removal]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-P removal [fraction of P removal]')</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('Facultative lagoon-C7', 'Facultative lagoon liner unit mass [kg/m2]')</t>
+          <t>('Facultative lagoon-C7', 'C7-Lagoon-liner unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed tau [d]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-tau [d]')</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed COD max decay [fraction of total COD]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-cod max decay [fraction of total COD]')</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed MCF decay [fraction of anaerobic conversion of degraded COD]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-mcf decay [fraction of anaerobic conversion of degraded COD]')</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed N max decay [fraction of N removal]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-n max decay [fraction of N removal]')</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed n2o EF decay [fraction of degraded N emitted as N2O]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-n2o EF decay [fraction of degraded N emitted as N2O]')</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed column H [m]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-column H [m]')</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed column unit mass [kg/m]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-column unit mass [kg/m]')</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed concrete thickness [m]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-concrete thickness [m]')</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed cover slope [degree]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-cover slope [degree]')</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('Unplanted drying bed-C8', 'Drying bed cover unit mass [kg/m2]')</t>
+          <t>('Unplanted drying bed-C8', 'C8-Drying bed-cover unit mass [kg/m2]')</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('TEA/LCA', 'Plant lifetime [yr]')</t>
+          <t>('LCA', 'Brick H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Brick H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Brick H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('LCA', 'Brick H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Cement H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('LCA', 'Cement H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Concrete H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Concrete H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Concrete H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('LCA', 'Concrete H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Excavation H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('LCA', 'Excavation H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Gravel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Gravel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Gravel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('LCA', 'Gravel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Plastic H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('LCA', 'Plastic H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Sand H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('LCA', 'Sand H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Stainless steel sheet H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('LCA', 'Stainless steel sheet H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H resources total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H ecosystem quality total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H ecosystem quality total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H human health total CF [points/kg]')</t>
+          <t>('LCA', 'Steel H human health total CF [points/kilogram]')</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('LCA', 'Steel H resources total CF [points/kg]')</t>
+          <t>('LCA', 'Wood H resources total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H ecosystem quality total CF [points/m3]')</t>
+          <t>('LCA', 'Wood H ecosystem quality total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H human health total CF [points/m3]')</t>
+          <t>('LCA', 'Wood H human health total CF [points/cubic meter]')</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('LCA', 'Wood H resources total CF [points/m3]')</t>
+          <t>('LCA', 'Trucking H resources total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H ecosystem quality total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Trucking H ecosystem quality total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H human health total CF [points/tonne*km]')</t>
+          <t>('LCA', 'Trucking H human health total CF [points/ton kilometer]')</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('LCA', 'Trucking H resources total CF [points/tonne*km]')</t>
+          <t>('LCA', 'N item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('LCA', 'N item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'P item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('LCA', 'P item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'K item H resources total CF [points/kg]')</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('LCA', 'K item H resources total CF [points/kg]')</t>
+          <t>('LCA', 'E item H resources total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H ecosystem quality total CF [points/kWh]')</t>
+          <t>('LCA', 'E item H ecosystem quality total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H human health total CF [points/kWh]')</t>
+          <t>('LCA', 'E item H human health total CF [points/kilowatt hour]')</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('LCA', 'E item H resources total CF [points/kWh]')</t>
+          <t>('TEA/LCA', 'Plant lifetime [yr]')</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
